--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Project\Mind-Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0A58BF-D31C-704D-8061-2692F9411050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="16980" windowHeight="20220" xr2:uid="{EE20DEAE-C389-404D-AA54-C02FB067AD1F}"/>
+    <workbookView xWindow="0" yWindow="864" windowWidth="16980" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,9 +46,6 @@
     <t>Depression</t>
   </si>
   <si>
-    <t xml:space="preserve">Scuidal </t>
-  </si>
-  <si>
     <t>Stress</t>
   </si>
   <si>
@@ -108,13 +104,16 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>Suicidal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,191 +488,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0BEC6C-D9F5-6946-9EF6-9218FA96D100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="232.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="232.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{66F329FE-1333-8144-9329-7772C4115685}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{D11EE227-9355-3D4A-A870-137DAAAB80D3}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{2759F3E5-42B0-7A47-9E11-7E54C0D6A8DD}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{723587C0-10D9-8044-A44C-2A7F0A50886E}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C10" r:id="rId3"/>
+    <hyperlink ref="C14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Project\Mind-Check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/Hackathon2024/Mind-Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5103A-2E5A-4C42-81E4-713367856006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="864" windowWidth="16980" windowHeight="20220"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="16980" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Anxiety</t>
   </si>
@@ -55,48 +45,6 @@
     <t>Personality Disorder</t>
   </si>
   <si>
-    <t>Anxiety Help Line</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.canada.ca/en/public-health/services/mental-health-services/mental-health-get-help.html&amp;ved=2ahUKEwjrjr6o2dWLAxWIIzQIHf-0IosQFnoECBsQAQ&amp;usg=AOvVaw1PqwzLEYDM6lH9o8csDuZK</t>
-  </si>
-  <si>
-    <t>https://umanitoba.ca</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>https://moodmb.ca</t>
-  </si>
-  <si>
-    <t>Mood Disorders Association of Manitoba Inc</t>
-  </si>
-  <si>
-    <t>https://klinic.mb.ca/crisis-support/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crisis Courage </t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.gov.mb.ca/mhcw/index.html&amp;ved=2ahUKEwiF6vuI2tWLAxWEODQIHVH6A7MQFnoECA4QAQ&amp;usg=AOvVaw3Flt1soFpvIlZ9UCZPFyN-</t>
-  </si>
-  <si>
-    <t>Manitoba Health and Addictions</t>
-  </si>
-  <si>
-    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.nami.org/about-mental-illness/mental-health-conditions/bipolar-disorder/&amp;ved=2ahUKEwjaoeCZ2tWLAxV8BDQIHVH0CmoQFnoECBMQAQ&amp;usg=AOvVaw0ZEbh2PeSCH2waGlswdDML</t>
-  </si>
-  <si>
-    <t>Bipolar Disorder</t>
-  </si>
-  <si>
-    <t>Borderline Personality Disorder</t>
-  </si>
-  <si>
-    <t>https://www.nami.org/about-mental-illness/mental-health-conditions/borderline-personality-disorder/#:~:text=Coping%20with%20BPD%20can%20be,you%20may%20have%20about%20BPD.</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -107,13 +55,91 @@
   </si>
   <si>
     <t>Suicidal</t>
+  </si>
+  <si>
+    <t>https://cmha.ca</t>
+  </si>
+  <si>
+    <t>Canadian Mental Health Association</t>
+  </si>
+  <si>
+    <t>Active Minds</t>
+  </si>
+  <si>
+    <t>https://www.activeminds.org</t>
+  </si>
+  <si>
+    <t>Rethink Mental Illness</t>
+  </si>
+  <si>
+    <t>The Trevor Project</t>
+  </si>
+  <si>
+    <t>Brain and Behavior Research Foundation</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.rethink.org/&amp;ved=2ahUKEwiwpI--0teLAxW_KzQIHSvzKo8QFnoECCEQAQ&amp;usg=AOvVaw2-KnH3scqjAHNJObtSbaQs</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.thetrevorproject.org/&amp;ved=2ahUKEwjRiZLD0teLAxWAOTQIHVTJJCkQFnoECB4QAQ&amp;usg=AOvVaw3lI-06e-9h6sp2tFFncNnl</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://bbrfoundation.org/&amp;ved=2ahUKEwi27YXI0teLAxW3CjQIHUDGNKgQFnoECCEQAQ&amp;usg=AOvVaw0hHkz5EQLfm29ayghYqsFr</t>
+  </si>
+  <si>
+    <t>American Foundation for Suicide Prevention</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://afsp.org/&amp;ved=2ahUKEwj0k9Xz0teLAxWVHjQIHR5uG0cQFnoECA8QAQ&amp;usg=AOvVaw317DaSCVEy8VaYd151I5VJ</t>
+  </si>
+  <si>
+    <t>Substance Abuse and Mental Health Services Administration</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.samhsa.gov/&amp;ved=2ahUKEwi746uL09eLAxUGFjQIHZ5aBxwQFnoECBYQAQ&amp;usg=AOvVaw0KNgAxaayjBospmY86cZQl</t>
+  </si>
+  <si>
+    <t>Click To See a Happy Pers</t>
+  </si>
+  <si>
+    <t>https://9gag.com/gag/a8Md1qY</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://adaa.org/&amp;ved=2ahUKEwiw3pb01NeLAxVpITQIHSjbB2QQFnoECBwQAQ&amp;usg=AOvVaw2awGmg8jAv0At_TV49_eIi</t>
+  </si>
+  <si>
+    <t>Anxiety and Depression Association of America</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://supportline.ca/&amp;ved=2ahUKEwiLyN2R1deLAxUBAjQIHYa4FDEQFnoECBQQAQ&amp;usg=AOvVaw2dDXo9O8ZcVzkyYoQZfV5b</t>
+  </si>
+  <si>
+    <t>Manitoba Farm, Rural &amp; Northern Support Services</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.stress.org/&amp;ved=2ahUKEwi_rq2d1deLAxWlHzQIHW7aLpEQFnoECCcQAQ&amp;usg=AOvVaw06et3r9xJLUYyj3YzA4Zrh</t>
+  </si>
+  <si>
+    <t>The American Institute of Stress</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.obad.ca/&amp;ved=2ahUKEwi739241deLAxXFHDQIHYz4F5MQFnoECBkQAQ&amp;usg=AOvVaw0k6cr9OsaKLFmUdBpOWRd2</t>
+  </si>
+  <si>
+    <t>The Organization for Bipolar Affective Disorders (OBAD)</t>
+  </si>
+  <si>
+    <t>List of Recommended BPD Resources</t>
+  </si>
+  <si>
+    <t>https://www.borderlinepersonalitydisorder.org/list-of-recommended-bpd-resources/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,191 +514,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="232.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="232.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
-    <hyperlink ref="C10" r:id="rId3"/>
-    <hyperlink ref="C14" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{92CBD49B-1B80-414A-B87E-F3CF52966594}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.google.com/search?client=safari&amp;sca_esv=b7714f4a58b6a0eb&amp;cs=1&amp;sxsrf=AHTn8zqKaDLDeycQdTW3dPzCoo-qxMu3ew:1740239632192&amp;q=active+minds&amp;stick=H4sIAAAAAAAAAOMwVGI0_sWo4pdYkpmfl5ijkJuaVwKkMlITc0oyFPKL0hPzMqvAksW_mDjiXf1CPEMi4zewML5i4ebi1M_VNzDKLTCvRPCS8jLSX7HwcHGBeWbJFRnJcK5pVVZuSjacm15pYF5SDteakmdmYQDnJRsYVZS8YjGBKDVOzrPIKBBScypKzMxTSMxLUXBKzUgsy8wvUghKLU5NLErOUHDLL81LATsVboiZQV6xIZxnWGJRbvqKRVZI2jkjMydFwSW1LDUnvwDkZQXPvOKSzJLSktRFrDyJySWZZakKuZl5KcW32CQZwvzCP8dumnvW8uSSu04b2Fbu3XwpY_lTxtOTOIgKNwDizUa_ZAEAAA&amp;sa=X&amp;ved=2ahUKEwissOLo0deLAxWzAHkGHW71F6UQ7fAIegQIABBf" xr:uid="{CA5F541F-54EB-8844-988B-A1EC389AE2BD}"/>
+    <hyperlink ref="B12" r:id="rId3" display="https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://supportline.ca/&amp;ved=2ahUKEwiLyN2R1deLAxUBAjQIHYa4FDEQFnoECBQQAQ&amp;usg=AOvVaw2dDXo9O8ZcVzkyYoQZfV5b" xr:uid="{A727112A-126E-274C-A225-16045A4A6177}"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.stress.org/&amp;ved=2ahUKEwi_rq2d1deLAxWlHzQIHW7aLpEQFnoECCcQAQ&amp;usg=AOvVaw06et3r9xJLUYyj3YzA4Zrh" xr:uid="{4A65BC93-8481-B140-83DB-B9A451634FDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Links.xlsx
+++ b/Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aamirsangey/Documents/Hackathon2024/Mind-Check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F5103A-2E5A-4C42-81E4-713367856006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A442AF-13E3-434A-84C6-084E56132F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="16980" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
